--- a/results/case2/sensitivity_case2_consq.xlsx
+++ b/results/case2/sensitivity_case2_consq.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.04117704383165101</v>
+        <v>0.04400842412623825</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.03670408546169561</v>
+        <v>-0.03922790005926537</v>
       </c>
     </row>
     <row r="4">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.369503079852033</v>
+        <v>3.326149395629255</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4211878849815041</v>
+        <v>-0.4157686744536568</v>
       </c>
     </row>
     <row r="5">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4120532819298081</v>
+        <v>0.4403865335237285</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3540211566554335</v>
+        <v>-0.3783640534141049</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2771084337349397</v>
+        <v>0.2771084337349399</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3942857142857144</v>
+        <v>-0.3942857142857141</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2771084337349399</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3942857142857143</v>
+        <v>-0.3942857142857142</v>
       </c>
     </row>
     <row r="7">
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2771084337349397</v>
+        <v>0.2771084337349399</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3942857142857144</v>
+        <v>-0.3942857142857141</v>
       </c>
       <c r="D7" t="n">
-        <v>4.099841839348432</v>
+        <v>4.087652787014162</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.206198841384348</v>
+        <v>-1.227646342212741</v>
       </c>
     </row>
   </sheetData>
